--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H2">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I2">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J2">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N2">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O2">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P2">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q2">
-        <v>1007.892145635308</v>
+        <v>1312.512410232339</v>
       </c>
       <c r="R2">
-        <v>1007.892145635308</v>
+        <v>11812.61169209105</v>
       </c>
       <c r="S2">
-        <v>0.1046605925995206</v>
+        <v>0.1217516909220426</v>
       </c>
       <c r="T2">
-        <v>0.1046605925995206</v>
+        <v>0.1217516909220426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H3">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I3">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J3">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N3">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P3">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q3">
-        <v>223.3996518507756</v>
+        <v>271.1625768570661</v>
       </c>
       <c r="R3">
-        <v>223.3996518507756</v>
+        <v>2440.463191713595</v>
       </c>
       <c r="S3">
-        <v>0.02319805750097481</v>
+        <v>0.02515366863562225</v>
       </c>
       <c r="T3">
-        <v>0.02319805750097481</v>
+        <v>0.02515366863562224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H4">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I4">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J4">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N4">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P4">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q4">
-        <v>238.4865536085337</v>
+        <v>301.6158546534934</v>
       </c>
       <c r="R4">
-        <v>238.4865536085337</v>
+        <v>2714.54269188144</v>
       </c>
       <c r="S4">
-        <v>0.02476469742896276</v>
+        <v>0.0279785852131176</v>
       </c>
       <c r="T4">
-        <v>0.02476469742896276</v>
+        <v>0.02797858521311759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H5">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I5">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J5">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N5">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P5">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q5">
-        <v>847.5735518401657</v>
+        <v>1030.182448690991</v>
       </c>
       <c r="R5">
-        <v>847.5735518401657</v>
+        <v>9271.642038218921</v>
       </c>
       <c r="S5">
-        <v>0.08801293927274023</v>
+        <v>0.09556210981969745</v>
       </c>
       <c r="T5">
-        <v>0.08801293927274023</v>
+        <v>0.09556210981969745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H6">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I6">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J6">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N6">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O6">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P6">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q6">
-        <v>1151.350501206756</v>
+        <v>1248.236259963004</v>
       </c>
       <c r="R6">
-        <v>1151.350501206756</v>
+        <v>11234.12633966704</v>
       </c>
       <c r="S6">
-        <v>0.1195574608532129</v>
+        <v>0.115789286360957</v>
       </c>
       <c r="T6">
-        <v>0.1195574608532129</v>
+        <v>0.115789286360957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H7">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I7">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J7">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N7">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P7">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q7">
-        <v>255.1972472864906</v>
+        <v>257.8832460091396</v>
       </c>
       <c r="R7">
-        <v>255.1972472864906</v>
+        <v>2320.949214082256</v>
       </c>
       <c r="S7">
-        <v>0.02649995363733574</v>
+        <v>0.02392184715154035</v>
       </c>
       <c r="T7">
-        <v>0.02649995363733574</v>
+        <v>0.02392184715154035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H8">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I8">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J8">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N8">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P8">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q8">
-        <v>272.431543610432</v>
+        <v>286.8451706994347</v>
       </c>
       <c r="R8">
-        <v>272.431543610432</v>
+        <v>2581.606536294912</v>
       </c>
       <c r="S8">
-        <v>0.0282895813014768</v>
+        <v>0.02660842236097101</v>
       </c>
       <c r="T8">
-        <v>0.0282895813014768</v>
+        <v>0.02660842236097101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H9">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I9">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J9">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N9">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O9">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P9">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q9">
-        <v>968.2129560655043</v>
+        <v>979.7325166669794</v>
       </c>
       <c r="R9">
-        <v>968.2129560655043</v>
+        <v>8817.592650002814</v>
       </c>
       <c r="S9">
-        <v>0.1005402633438276</v>
+        <v>0.09088225728425497</v>
       </c>
       <c r="T9">
-        <v>0.1005402633438276</v>
+        <v>0.09088225728425497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H10">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I10">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J10">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N10">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O10">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P10">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q10">
-        <v>1203.279158521879</v>
+        <v>1394.780323451011</v>
       </c>
       <c r="R10">
-        <v>1203.279158521879</v>
+        <v>12553.0229110591</v>
       </c>
       <c r="S10">
-        <v>0.1249497878705769</v>
+        <v>0.1293830530828226</v>
       </c>
       <c r="T10">
-        <v>0.1249497878705769</v>
+        <v>0.1293830530828226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H11">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I11">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J11">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N11">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P11">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q11">
-        <v>266.7072526134637</v>
+        <v>288.1589718374989</v>
       </c>
       <c r="R11">
-        <v>266.7072526134637</v>
+        <v>2593.43074653749</v>
       </c>
       <c r="S11">
-        <v>0.02769516483484469</v>
+        <v>0.0267302935972714</v>
       </c>
       <c r="T11">
-        <v>0.02769516483484469</v>
+        <v>0.02673029359727141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H12">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I12">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J12">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N12">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O12">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P12">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q12">
-        <v>284.718856861391</v>
+        <v>320.5210526253867</v>
       </c>
       <c r="R12">
-        <v>284.718856861391</v>
+        <v>2884.68947362848</v>
       </c>
       <c r="S12">
-        <v>0.02956550898071346</v>
+        <v>0.02973227516099895</v>
       </c>
       <c r="T12">
-        <v>0.02956550898071346</v>
+        <v>0.02973227516099896</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H13">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I13">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J13">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N13">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O13">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P13">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q13">
-        <v>1011.881672716855</v>
+        <v>1094.753998359849</v>
       </c>
       <c r="R13">
-        <v>1011.881672716855</v>
+        <v>9852.785985238641</v>
       </c>
       <c r="S13">
-        <v>0.1050748693357316</v>
+        <v>0.1015519163132211</v>
       </c>
       <c r="T13">
-        <v>0.1050748693357316</v>
+        <v>0.1015519163132212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H14">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I14">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J14">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.2164389301673</v>
+        <v>47.57896333333333</v>
       </c>
       <c r="N14">
-        <v>44.2164389301673</v>
+        <v>142.73689</v>
       </c>
       <c r="O14">
-        <v>0.4349327110651062</v>
+        <v>0.450188452948237</v>
       </c>
       <c r="P14">
-        <v>0.4349327110651062</v>
+        <v>0.4501884529482371</v>
       </c>
       <c r="Q14">
-        <v>825.9244137376229</v>
+        <v>897.610432698012</v>
       </c>
       <c r="R14">
-        <v>825.9244137376229</v>
+        <v>8078.493894282108</v>
       </c>
       <c r="S14">
-        <v>0.08576486974179576</v>
+        <v>0.08326442258241483</v>
       </c>
       <c r="T14">
-        <v>0.08576486974179576</v>
+        <v>0.08326442258241484</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H15">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I15">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J15">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.80058938434733</v>
+        <v>9.829723666666666</v>
       </c>
       <c r="N15">
-        <v>9.80058938434733</v>
+        <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111737</v>
       </c>
       <c r="P15">
-        <v>0.09640298979531495</v>
+        <v>0.09300808131111739</v>
       </c>
       <c r="Q15">
-        <v>183.066439482706</v>
+        <v>185.4446145016587</v>
       </c>
       <c r="R15">
-        <v>183.066439482706</v>
+        <v>1669.001530514929</v>
       </c>
       <c r="S15">
-        <v>0.01900981382215971</v>
+        <v>0.01720227192668337</v>
       </c>
       <c r="T15">
-        <v>0.01900981382215971</v>
+        <v>0.01720227192668338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H16">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I16">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J16">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.4624549154026</v>
+        <v>10.933664</v>
       </c>
       <c r="N16">
-        <v>10.4624549154026</v>
+        <v>32.800992</v>
       </c>
       <c r="O16">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405002</v>
       </c>
       <c r="P16">
-        <v>0.1029133958060083</v>
+        <v>0.1034534789405003</v>
       </c>
       <c r="Q16">
-        <v>195.4295088283245</v>
+        <v>206.2712212802453</v>
       </c>
       <c r="R16">
-        <v>195.4295088283245</v>
+        <v>1856.440991522208</v>
       </c>
       <c r="S16">
-        <v>0.02029360809485522</v>
+        <v>0.01913419620541269</v>
       </c>
       <c r="T16">
-        <v>0.02029360809485522</v>
+        <v>0.01913419620541269</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H17">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I17">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J17">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.1832287373793</v>
+        <v>37.34441866666666</v>
       </c>
       <c r="N17">
-        <v>37.1832287373793</v>
+        <v>112.033256</v>
       </c>
       <c r="O17">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="P17">
-        <v>0.3657509033335706</v>
+        <v>0.3533499868001453</v>
       </c>
       <c r="Q17">
-        <v>694.5501975926702</v>
+        <v>704.5285867915936</v>
       </c>
       <c r="R17">
-        <v>694.5501975926702</v>
+        <v>6340.757281124343</v>
       </c>
       <c r="S17">
-        <v>0.07212283138127122</v>
+        <v>0.06535370338297172</v>
       </c>
       <c r="T17">
-        <v>0.07212283138127122</v>
+        <v>0.06535370338297172</v>
       </c>
     </row>
   </sheetData>
